--- a/Backend/data/data.xlsx
+++ b/Backend/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\inhouse\Conference-management\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E43881-505C-45B4-82ED-610082DB0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53808345-D8D2-4473-82D7-1301BDA1AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1231">
   <si>
     <t>Presenters</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Automation in Embedded Systems</t>
   </si>
   <si>
-    <t>Rohan Yadav, Neha Nair, Priya Joshi</t>
-  </si>
-  <si>
-    <t>Rohan Patil, Manish Kumar</t>
-  </si>
-  <si>
     <t>Neha Das, Rahul Nair, Amit Kumar</t>
   </si>
   <si>
@@ -1015,9 +1009,6 @@
     <t>8591173398, 9263594242, 8951187061</t>
   </si>
   <si>
-    <t>8686347076, 8858115359</t>
-  </si>
-  <si>
     <t>8502079386, 9696597537, 9130252490</t>
   </si>
   <si>
@@ -1910,12 +1901,6 @@
   </si>
   <si>
     <t>7781816994, 7831712280</t>
-  </si>
-  <si>
-    <t>rohan.yadav@gmail.com, neha.nair@yahoo.com, priya.joshi@university.edu</t>
-  </si>
-  <si>
-    <t>rohan.patil@yahoo.com, manish.kumar@outlook.com</t>
   </si>
   <si>
     <t>neha.das@university.edu, rahul.nair@outlook.com, amit.kumar@outlook.com</t>
@@ -4235,12 +4220,24 @@
   <si>
     <t>Title</t>
   </si>
+  <si>
+    <t>Siddhi Bodake, Rishi, Sarthak</t>
+  </si>
+  <si>
+    <t>siddhi04.bodake@gmail.com, water11girl3@gmail.com, siddhimbodake@gmail.com</t>
+  </si>
+  <si>
+    <t>Rishikesh</t>
+  </si>
+  <si>
+    <t>rishivc26@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4252,6 +4249,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4289,16 +4294,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4603,8 +4611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4619,10 +4627,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4645,16 +4653,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>1227</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>630</v>
+        <v>328</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1228</v>
       </c>
       <c r="F2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4665,16 +4673,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" t="s">
-        <v>631</v>
+        <v>1229</v>
+      </c>
+      <c r="D3">
+        <v>8686347076</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1230</v>
       </c>
       <c r="F3" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4685,16 +4693,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -4705,16 +4713,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F5" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4725,16 +4733,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F6" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4745,16 +4753,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F7" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4765,16 +4773,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F8" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4785,16 +4793,16 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4805,16 +4813,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E10" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F10" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -4825,16 +4833,16 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F11" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4845,16 +4853,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F12" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -4865,16 +4873,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F13" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -4885,16 +4893,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F14" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -4905,16 +4913,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F15" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4925,16 +4933,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F16" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4945,16 +4953,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F17" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -4965,16 +4973,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E18" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F18" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4985,16 +4993,16 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E19" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F19" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -5005,16 +5013,16 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E20" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F20" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -5025,16 +5033,16 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E21" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F21" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -5045,16 +5053,16 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E22" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F22" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -5065,16 +5073,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E23" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F23" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -5085,16 +5093,16 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E24" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F24" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -5105,16 +5113,16 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E25" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F25" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -5125,16 +5133,16 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E26" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F26" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -5145,16 +5153,16 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F27" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -5165,16 +5173,16 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E28" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F28" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -5185,16 +5193,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E29" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F29" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -5205,16 +5213,16 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E30" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F30" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -5225,16 +5233,16 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F31" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -5245,16 +5253,16 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E32" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F32" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -5265,16 +5273,16 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E33" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F33" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -5285,16 +5293,16 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E34" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F34" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -5305,16 +5313,16 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F35" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -5325,16 +5333,16 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E36" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F36" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -5345,16 +5353,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F37" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -5365,16 +5373,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F38" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -5385,16 +5393,16 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E39" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F39" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -5405,16 +5413,16 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E40" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F40" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -5425,16 +5433,16 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F41" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -5445,16 +5453,16 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F42" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -5465,16 +5473,16 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E43" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F43" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -5485,16 +5493,16 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E44" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F44" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -5505,16 +5513,16 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E45" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F45" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -5525,16 +5533,16 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F46" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -5545,16 +5553,16 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E47" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F47" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -5565,16 +5573,16 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E48" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F48" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -5585,16 +5593,16 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E49" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F49" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -5605,16 +5613,16 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E50" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F50" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -5625,16 +5633,16 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E51" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F51" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -5645,16 +5653,16 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E52" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F52" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -5665,16 +5673,16 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E53" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F53" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -5685,16 +5693,16 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E54" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F54" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -5705,16 +5713,16 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F55" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -5725,16 +5733,16 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E56" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F56" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -5745,16 +5753,16 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E57" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F57" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -5765,16 +5773,16 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E58" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F58" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -5785,16 +5793,16 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F59" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -5805,16 +5813,16 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F60" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -5825,16 +5833,16 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E61" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F61" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -5845,16 +5853,16 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E62" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F62" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -5865,16 +5873,16 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E63" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F63" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -5885,16 +5893,16 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E64" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F64" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -5905,16 +5913,16 @@
         <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F65" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -5925,16 +5933,16 @@
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E66" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F66" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -5945,16 +5953,16 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E67" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F67" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -5965,16 +5973,16 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E68" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F68" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -5985,16 +5993,16 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E69" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F69" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -6005,16 +6013,16 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E70" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F70" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -6025,16 +6033,16 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F71" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -6045,16 +6053,16 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E72" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F72" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -6065,16 +6073,16 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E73" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F73" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -6085,16 +6093,16 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E74" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F74" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -6105,16 +6113,16 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E75" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F75" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -6125,16 +6133,16 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E76" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F76" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -6145,16 +6153,16 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E77" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F77" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -6165,16 +6173,16 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E78" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F78" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -6185,16 +6193,16 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E79" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F79" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -6205,16 +6213,16 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E80" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F80" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -6225,16 +6233,16 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F81" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -6245,16 +6253,16 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E82" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F82" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -6265,16 +6273,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E83" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F83" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -6285,16 +6293,16 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D84" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E84" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F84" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -6305,16 +6313,16 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E85" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F85" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -6325,16 +6333,16 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E86" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F86" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -6345,16 +6353,16 @@
         <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E87" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F87" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -6365,16 +6373,16 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E88" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F88" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -6385,16 +6393,16 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E89" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F89" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -6405,16 +6413,16 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E90" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F90" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -6425,16 +6433,16 @@
         <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D91" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E91" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F91" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -6445,16 +6453,16 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E92" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F92" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -6465,16 +6473,16 @@
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E93" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F93" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -6485,16 +6493,16 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E94" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F94" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -6505,16 +6513,16 @@
         <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E95" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F95" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -6525,16 +6533,16 @@
         <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E96" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F96" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -6545,16 +6553,16 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E97" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F97" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -6565,16 +6573,16 @@
         <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E98" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F98" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -6585,16 +6593,16 @@
         <v>27</v>
       </c>
       <c r="C99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E99" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F99" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -6605,16 +6613,16 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E100" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F100" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -6625,16 +6633,16 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D101" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E101" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F101" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -6645,16 +6653,16 @@
         <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D102" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E102" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F102" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -6665,16 +6673,16 @@
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E103" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F103" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -6685,16 +6693,16 @@
         <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E104" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F104" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -6705,16 +6713,16 @@
         <v>22</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E105" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F105" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -6725,16 +6733,16 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E106" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F106" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -6745,16 +6753,16 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F107" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -6765,16 +6773,16 @@
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E108" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F108" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -6785,16 +6793,16 @@
         <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E109" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F109" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -6805,16 +6813,16 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E110" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F110" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -6825,16 +6833,16 @@
         <v>23</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D111" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E111" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F111" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -6845,16 +6853,16 @@
         <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D112" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E112" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F112" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -6865,16 +6873,16 @@
         <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F113" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -6885,16 +6893,16 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E114" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F114" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -6905,16 +6913,16 @@
         <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E115" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F115" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -6925,16 +6933,16 @@
         <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E116" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F116" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -6945,16 +6953,16 @@
         <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D117" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E117" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F117" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -6965,16 +6973,16 @@
         <v>30</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E118" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F118" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -6985,16 +6993,16 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D119" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E119" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F119" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -7005,16 +7013,16 @@
         <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D120" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E120" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F120" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -7025,16 +7033,16 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D121" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E121" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F121" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -7045,16 +7053,16 @@
         <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E122" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F122" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -7065,16 +7073,16 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E123" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F123" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -7085,16 +7093,16 @@
         <v>22</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E124" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="F124" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -7105,16 +7113,16 @@
         <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D125" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E125" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F125" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -7125,16 +7133,16 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E126" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F126" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -7145,16 +7153,16 @@
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D127" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E127" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F127" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -7165,16 +7173,16 @@
         <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D128" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E128" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F128" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -7185,16 +7193,16 @@
         <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D129" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E129" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F129" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -7205,16 +7213,16 @@
         <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D130" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E130" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F130" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -7225,16 +7233,16 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D131" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E131" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F131" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -7245,16 +7253,16 @@
         <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D132" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E132" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="F132" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -7265,16 +7273,16 @@
         <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E133" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F133" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -7285,16 +7293,16 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E134" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="F134" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -7305,16 +7313,16 @@
         <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E135" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F135" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -7325,16 +7333,16 @@
         <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D136" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E136" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="F136" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -7345,16 +7353,16 @@
         <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E137" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F137" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -7365,16 +7373,16 @@
         <v>28</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D138" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E138" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F138" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -7385,16 +7393,16 @@
         <v>28</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E139" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F139" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -7405,16 +7413,16 @@
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F140" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -7425,16 +7433,16 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D141" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E141" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F141" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -7445,16 +7453,16 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D142" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E142" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F142" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -7465,16 +7473,16 @@
         <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E143" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F143" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -7485,16 +7493,16 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E144" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F144" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -7505,16 +7513,16 @@
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D145" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E145" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F145" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -7525,16 +7533,16 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D146" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E146" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F146" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -7545,16 +7553,16 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E147" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F147" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -7565,16 +7573,16 @@
         <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E148" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F148" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -7585,16 +7593,16 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D149" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E149" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F149" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -7605,16 +7613,16 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D150" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E150" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F150" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -7625,16 +7633,16 @@
         <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D151" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E151" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F151" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -7645,16 +7653,16 @@
         <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D152" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E152" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="F152" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -7665,16 +7673,16 @@
         <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D153" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E153" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F153" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -7685,16 +7693,16 @@
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D154" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E154" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F154" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -7705,16 +7713,16 @@
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E155" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F155" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -7725,16 +7733,16 @@
         <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E156" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F156" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -7745,16 +7753,16 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E157" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F157" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -7765,16 +7773,16 @@
         <v>30</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D158" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E158" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="F158" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -7785,16 +7793,16 @@
         <v>26</v>
       </c>
       <c r="C159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D159" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E159" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F159" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -7805,16 +7813,16 @@
         <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E160" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F160" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -7825,16 +7833,16 @@
         <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D161" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E161" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F161" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -7845,16 +7853,16 @@
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D162" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E162" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F162" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -7865,16 +7873,16 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D163" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E163" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F163" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -7885,16 +7893,16 @@
         <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E164" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="F164" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -7905,16 +7913,16 @@
         <v>18</v>
       </c>
       <c r="C165" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D165" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E165" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F165" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -7925,16 +7933,16 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D166" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E166" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F166" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -7945,16 +7953,16 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D167" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E167" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F167" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -7965,16 +7973,16 @@
         <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E168" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F168" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -7985,16 +7993,16 @@
         <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D169" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E169" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F169" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -8005,16 +8013,16 @@
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D170" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E170" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="F170" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -8025,16 +8033,16 @@
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D171" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E171" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F171" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -8045,16 +8053,16 @@
         <v>18</v>
       </c>
       <c r="C172" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D172" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E172" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F172" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -8065,16 +8073,16 @@
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E173" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F173" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -8085,16 +8093,16 @@
         <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D174" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E174" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F174" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -8105,16 +8113,16 @@
         <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D175" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E175" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F175" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -8125,16 +8133,16 @@
         <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D176" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E176" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F176" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -8145,16 +8153,16 @@
         <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D177" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E177" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F177" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -8165,16 +8173,16 @@
         <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D178" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E178" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F178" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -8185,16 +8193,16 @@
         <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D179" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E179" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F179" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -8205,16 +8213,16 @@
         <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D180" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E180" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="F180" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -8225,16 +8233,16 @@
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D181" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E181" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F181" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -8245,16 +8253,16 @@
         <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E182" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F182" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -8265,16 +8273,16 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E183" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F183" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -8285,16 +8293,16 @@
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D184" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E184" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F184" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -8305,16 +8313,16 @@
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D185" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E185" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F185" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -8325,16 +8333,16 @@
         <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D186" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E186" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F186" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -8345,16 +8353,16 @@
         <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D187" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E187" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F187" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -8365,16 +8373,16 @@
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D188" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E188" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F188" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -8385,16 +8393,16 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D189" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E189" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F189" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -8405,16 +8413,16 @@
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D190" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E190" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F190" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -8425,16 +8433,16 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D191" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E191" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F191" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -8445,16 +8453,16 @@
         <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D192" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E192" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F192" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -8465,16 +8473,16 @@
         <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D193" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E193" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F193" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -8485,16 +8493,16 @@
         <v>22</v>
       </c>
       <c r="C194" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D194" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E194" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F194" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -8505,16 +8513,16 @@
         <v>20</v>
       </c>
       <c r="C195" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D195" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E195" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F195" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -8525,16 +8533,16 @@
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D196" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E196" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="F196" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -8545,16 +8553,16 @@
         <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D197" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E197" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F197" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -8565,16 +8573,16 @@
         <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D198" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E198" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F198" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -8585,16 +8593,16 @@
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D199" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E199" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F199" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -8605,16 +8613,16 @@
         <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D200" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E200" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F200" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -8625,16 +8633,16 @@
         <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D201" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E201" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F201" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -8645,16 +8653,16 @@
         <v>23</v>
       </c>
       <c r="C202" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D202" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E202" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F202" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -8665,16 +8673,16 @@
         <v>18</v>
       </c>
       <c r="C203" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D203" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E203" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F203" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -8685,16 +8693,16 @@
         <v>18</v>
       </c>
       <c r="C204" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D204" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E204" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F204" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -8705,16 +8713,16 @@
         <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D205" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E205" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F205" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -8725,16 +8733,16 @@
         <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D206" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E206" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F206" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -8745,16 +8753,16 @@
         <v>25</v>
       </c>
       <c r="C207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D207" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E207" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F207" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -8765,16 +8773,16 @@
         <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D208" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E208" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F208" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -8785,16 +8793,16 @@
         <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D209" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E209" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F209" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -8805,16 +8813,16 @@
         <v>24</v>
       </c>
       <c r="C210" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D210" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E210" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F210" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -8825,16 +8833,16 @@
         <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E211" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F211" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -8845,16 +8853,16 @@
         <v>24</v>
       </c>
       <c r="C212" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D212" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E212" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F212" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -8865,16 +8873,16 @@
         <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D213" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E213" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F213" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -8885,16 +8893,16 @@
         <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E214" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="F214" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -8905,16 +8913,16 @@
         <v>23</v>
       </c>
       <c r="C215" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D215" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E215" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F215" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -8925,16 +8933,16 @@
         <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D216" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E216" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="F216" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -8945,16 +8953,16 @@
         <v>29</v>
       </c>
       <c r="C217" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D217" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E217" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F217" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -8965,16 +8973,16 @@
         <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D218" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E218" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F218" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -8985,16 +8993,16 @@
         <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D219" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E219" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F219" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -9005,16 +9013,16 @@
         <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D220" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E220" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F220" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -9025,16 +9033,16 @@
         <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D221" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E221" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F221" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -9045,16 +9053,16 @@
         <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D222" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E222" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F222" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -9065,16 +9073,16 @@
         <v>26</v>
       </c>
       <c r="C223" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D223" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E223" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F223" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -9085,16 +9093,16 @@
         <v>28</v>
       </c>
       <c r="C224" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D224" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E224" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F224" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -9105,16 +9113,16 @@
         <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D225" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E225" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F225" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -9125,16 +9133,16 @@
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D226" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E226" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F226" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -9145,16 +9153,16 @@
         <v>30</v>
       </c>
       <c r="C227" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D227" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E227" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F227" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -9165,16 +9173,16 @@
         <v>29</v>
       </c>
       <c r="C228" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D228" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E228" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F228" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -9185,16 +9193,16 @@
         <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D229" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E229" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F229" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -9205,16 +9213,16 @@
         <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D230" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E230" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F230" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -9225,16 +9233,16 @@
         <v>20</v>
       </c>
       <c r="C231" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D231" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E231" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F231" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -9245,16 +9253,16 @@
         <v>23</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D232" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E232" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F232" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -9265,16 +9273,16 @@
         <v>18</v>
       </c>
       <c r="C233" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D233" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E233" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F233" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -9285,16 +9293,16 @@
         <v>23</v>
       </c>
       <c r="C234" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D234" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E234" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F234" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -9305,16 +9313,16 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D235" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E235" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F235" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -9325,16 +9333,16 @@
         <v>23</v>
       </c>
       <c r="C236" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D236" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E236" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F236" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -9345,16 +9353,16 @@
         <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D237" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E237" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F237" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -9365,16 +9373,16 @@
         <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D238" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E238" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="F238" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -9385,16 +9393,16 @@
         <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D239" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E239" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F239" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -9405,16 +9413,16 @@
         <v>22</v>
       </c>
       <c r="C240" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D240" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E240" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="F240" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -9425,16 +9433,16 @@
         <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D241" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E241" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F241" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -9445,16 +9453,16 @@
         <v>26</v>
       </c>
       <c r="C242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D242" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E242" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F242" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -9465,16 +9473,16 @@
         <v>28</v>
       </c>
       <c r="C243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D243" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E243" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F243" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -9485,16 +9493,16 @@
         <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D244" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E244" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F244" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -9505,16 +9513,16 @@
         <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D245" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E245" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F245" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -9525,16 +9533,16 @@
         <v>29</v>
       </c>
       <c r="C246" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D246" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E246" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F246" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -9545,16 +9553,16 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D247" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E247" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F247" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -9565,16 +9573,16 @@
         <v>18</v>
       </c>
       <c r="C248" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D248" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E248" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="F248" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -9585,16 +9593,16 @@
         <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D249" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E249" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F249" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -9605,16 +9613,16 @@
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D250" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E250" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F250" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -9625,16 +9633,16 @@
         <v>27</v>
       </c>
       <c r="C251" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D251" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E251" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F251" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -9645,16 +9653,16 @@
         <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D252" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E252" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F252" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -9665,16 +9673,16 @@
         <v>26</v>
       </c>
       <c r="C253" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D253" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E253" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F253" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -9685,16 +9693,16 @@
         <v>28</v>
       </c>
       <c r="C254" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D254" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E254" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F254" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -9705,16 +9713,16 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D255" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E255" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F255" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -9725,16 +9733,16 @@
         <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D256" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E256" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F256" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -9745,16 +9753,16 @@
         <v>23</v>
       </c>
       <c r="C257" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D257" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E257" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F257" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -9765,16 +9773,16 @@
         <v>24</v>
       </c>
       <c r="C258" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D258" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E258" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F258" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -9785,16 +9793,16 @@
         <v>24</v>
       </c>
       <c r="C259" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D259" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E259" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F259" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -9805,16 +9813,16 @@
         <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D260" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E260" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="F260" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -9825,16 +9833,16 @@
         <v>18</v>
       </c>
       <c r="C261" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D261" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E261" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F261" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -9845,16 +9853,16 @@
         <v>29</v>
       </c>
       <c r="C262" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D262" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E262" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F262" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -9865,16 +9873,16 @@
         <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D263" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F263" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -9885,16 +9893,16 @@
         <v>17</v>
       </c>
       <c r="C264" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D264" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E264" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F264" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -9905,16 +9913,16 @@
         <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D265" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E265" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F265" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -9925,16 +9933,16 @@
         <v>30</v>
       </c>
       <c r="C266" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D266" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E266" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F266" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -9945,16 +9953,16 @@
         <v>24</v>
       </c>
       <c r="C267" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D267" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E267" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F267" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -9965,16 +9973,16 @@
         <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D268" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E268" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F268" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -9985,16 +9993,16 @@
         <v>24</v>
       </c>
       <c r="C269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D269" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E269" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F269" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -10005,16 +10013,16 @@
         <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D270" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E270" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F270" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -10025,16 +10033,16 @@
         <v>19</v>
       </c>
       <c r="C271" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D271" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E271" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F271" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -10045,16 +10053,16 @@
         <v>22</v>
       </c>
       <c r="C272" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D272" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E272" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F272" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -10065,16 +10073,16 @@
         <v>17</v>
       </c>
       <c r="C273" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D273" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E273" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F273" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -10085,16 +10093,16 @@
         <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D274" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E274" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F274" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -10105,16 +10113,16 @@
         <v>24</v>
       </c>
       <c r="C275" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D275" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E275" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F275" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -10125,16 +10133,16 @@
         <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D276" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E276" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F276" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -10145,16 +10153,16 @@
         <v>24</v>
       </c>
       <c r="C277" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D277" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E277" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F277" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -10165,16 +10173,16 @@
         <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D278" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E278" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F278" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -10185,16 +10193,16 @@
         <v>22</v>
       </c>
       <c r="C279" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D279" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E279" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F279" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -10205,16 +10213,16 @@
         <v>26</v>
       </c>
       <c r="C280" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D280" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E280" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F280" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -10225,16 +10233,16 @@
         <v>26</v>
       </c>
       <c r="C281" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D281" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E281" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F281" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -10245,16 +10253,16 @@
         <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D282" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F282" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -10265,16 +10273,16 @@
         <v>20</v>
       </c>
       <c r="C283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D283" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E283" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F283" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -10285,16 +10293,16 @@
         <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D284" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E284" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F284" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -10305,16 +10313,16 @@
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D285" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E285" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F285" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -10325,16 +10333,16 @@
         <v>22</v>
       </c>
       <c r="C286" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D286" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E286" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F286" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -10345,16 +10353,16 @@
         <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D287" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E287" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F287" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -10365,16 +10373,16 @@
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D288" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E288" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F288" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -10385,16 +10393,16 @@
         <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D289" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E289" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F289" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -10405,16 +10413,16 @@
         <v>27</v>
       </c>
       <c r="C290" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D290" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E290" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F290" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -10425,16 +10433,16 @@
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D291" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E291" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F291" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -10445,16 +10453,16 @@
         <v>24</v>
       </c>
       <c r="C292" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D292" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E292" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F292" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -10465,16 +10473,16 @@
         <v>22</v>
       </c>
       <c r="C293" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D293" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E293" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F293" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -10485,16 +10493,16 @@
         <v>26</v>
       </c>
       <c r="C294" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D294" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E294" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F294" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
@@ -10505,16 +10513,16 @@
         <v>23</v>
       </c>
       <c r="C295" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D295" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E295" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F295" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
@@ -10525,16 +10533,16 @@
         <v>27</v>
       </c>
       <c r="C296" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D296" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E296" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F296" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -10545,16 +10553,16 @@
         <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D297" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E297" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F297" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -10565,16 +10573,16 @@
         <v>29</v>
       </c>
       <c r="C298" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D298" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E298" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F298" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
@@ -10585,16 +10593,16 @@
         <v>22</v>
       </c>
       <c r="C299" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D299" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E299" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F299" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
@@ -10605,16 +10613,16 @@
         <v>24</v>
       </c>
       <c r="C300" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D300" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E300" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F300" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -10625,19 +10633,23 @@
         <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D301" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E301" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F301" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="siddhi04.bodake@gmail.com,water11girl3@gmail.com,siddhimbodake@gmail.com" xr:uid="{58877872-1266-4080-9004-F276D16B76EB}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8BF087F5-8C24-4DDF-91F1-AC97BF1DE52F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>